--- a/biology/Botanique/Dendrophthora/Dendrophthora.xlsx
+++ b/biology/Botanique/Dendrophthora/Dendrophthora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dendrophthora est un genre de plantes dicotylédones, de la famille des santalaceae originaire des régions tropicales d'Amérique. Toutes ces espèces sont des parasites poussant sur la tige de leur plante hôte. En Équateur, il existe de nombreuses espèces de dendrophthora, toutes originaires de la zone andine du pays où elles croissent entre 1000 et plus de 4000m d'altitude, dans des climats allant de subtropical (forêt humide de montagne) à froid (Páramo)[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dendrophthora est un genre de plantes dicotylédones, de la famille des santalaceae originaire des régions tropicales d'Amérique. Toutes ces espèces sont des parasites poussant sur la tige de leur plante hôte. En Équateur, il existe de nombreuses espèces de dendrophthora, toutes originaires de la zone andine du pays où elles croissent entre 1000 et plus de 4000m d'altitude, dans des climats allant de subtropical (forêt humide de montagne) à froid (Páramo). 
 </t>
         </is>
       </c>
@@ -511,16 +523,18 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (8 oct. 2010)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (8 oct. 2010) :
 Dendrophthora clavata
 Dendrophthora costaricensis
 Dendrophthora domingensis
 Dendrophthora guatemalensis
 Dendrophthora opuntioides
 Dendrophthora squamigera
-Selon ITIS      (8 oct. 2010)[3] :
+Selon ITIS      (8 oct. 2010) :
 Dendrophthora domingensis (Spreng.) Eichl.
 Dendrophthora flagelliformis (Lam.) Krug &amp; Urban
 Dendrophthora serpyllifolia (Griseb.) Krug &amp; Urban</t>
